--- a/regionseng/3/standard of living/incomes.xlsx
+++ b/regionseng/3/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -324,6 +324,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -335,19 +350,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -661,35 +676,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="12">
         <v>2011</v>
@@ -724,8 +742,14 @@
       <c r="L2" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -759,11 +783,17 @@
       <c r="K3" s="4">
         <v>27.048974922759822</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="4">
         <v>30.983926768219987</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="17">
+        <v>35.127692542175758</v>
+      </c>
+      <c r="N3" s="26">
+        <v>39.599353012172244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -797,11 +827,17 @@
       <c r="K4" s="4">
         <v>22.4512134211922</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="4">
         <v>26.361907321848559</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="17">
+        <v>30.397976207154496</v>
+      </c>
+      <c r="N4" s="26">
+        <v>35.61372428171795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -835,11 +871,17 @@
       <c r="K5" s="5">
         <v>7.9408233618030533</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="5">
         <v>8.8608295241057089</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="18">
+        <v>12.050366401029585</v>
+      </c>
+      <c r="N5" s="27">
+        <v>14.673691230515164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -873,11 +915,17 @@
       <c r="K6" s="5">
         <v>1.6620790041224163</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="5">
         <v>2.3748706342277526</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="18">
+        <v>3.2338788114662167</v>
+      </c>
+      <c r="N6" s="27">
+        <v>3.3831907559267682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
@@ -911,11 +959,17 @@
       <c r="K7" s="5">
         <v>2.146760304682795</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="5">
         <v>3.3999776225744243</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="18">
+        <v>2.2068914118479732</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2.5878879517866777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -949,11 +1003,17 @@
       <c r="K8" s="5">
         <v>6.4190539423624682E-2</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="5">
         <v>0.1761918186823527</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="18">
+        <v>0.14105544967651368</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0.21412327785491944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -987,11 +1047,17 @@
       <c r="K9" s="5">
         <v>8.2714357369111369</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="5">
         <v>9.2315366212615988</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="18">
+        <v>9.9529597360655462</v>
+      </c>
+      <c r="N9" s="27">
+        <v>12.129410255203245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -1025,11 +1091,17 @@
       <c r="K10" s="5">
         <v>0.67897507085800168</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="5">
         <v>0.69212436229705809</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="18">
+        <v>0.86308938423792503</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1.0967852689107258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
@@ -1063,11 +1135,17 @@
       <c r="K11" s="5">
         <v>1.6869494033911692</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="5">
         <v>1.6263767386996724</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="18">
+        <v>1.9497350128307342</v>
+      </c>
+      <c r="N11" s="27">
+        <v>1.5286355415204369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1101,11 +1179,17 @@
       <c r="K12" s="4">
         <v>4.5977615015676285</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="4">
         <v>4.6220194463714215</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="17">
+        <v>4.729716335021263</v>
+      </c>
+      <c r="N12" s="26">
+        <v>3.9856287304543123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -1139,11 +1223,17 @@
       <c r="K13" s="4">
         <v>0.99950325524965911</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="4">
         <v>1.1798355777422589</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="17">
+        <v>1.4127461923077904</v>
+      </c>
+      <c r="N13" s="26">
+        <v>1.5737261697832745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
@@ -1177,11 +1267,17 @@
       <c r="K14" s="5">
         <v>5.992261759440104E-2</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="5">
         <v>0.12151059023539225</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="18">
+        <v>4.002788432439168E-2</v>
+      </c>
+      <c r="N14" s="27">
+        <v>6.8786843109130857E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1215,11 +1311,17 @@
       <c r="K15" s="5">
         <v>0.93958063765525801</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="5">
         <v>1.0583249875068665</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="18">
+        <v>1.3727183079833987</v>
+      </c>
+      <c r="N15" s="27">
+        <v>1.5049393266741435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
@@ -1253,11 +1355,17 @@
       <c r="K16" s="4">
         <v>23.450716676441861</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="4">
         <v>27.541742899590819</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="17">
+        <v>31.810722399462282</v>
+      </c>
+      <c r="N16" s="26">
+        <v>37.187450451501213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
@@ -1291,11 +1399,17 @@
       <c r="K17" s="6">
         <v>28.048478178009486</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="6">
         <v>32.163762345962247</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="19">
+        <v>36.540438734483544</v>
+      </c>
+      <c r="N17" s="28">
+        <v>41.173079181955529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1306,7 +1420,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1317,23 +1431,25 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="12">
         <v>2011</v>
@@ -1368,8 +1484,14 @@
       <c r="L21" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
@@ -1403,11 +1525,17 @@
       <c r="K22" s="8">
         <v>809.64413628810416</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="8">
         <v>901.79474621771578</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="20">
+        <v>1063.2207944789213</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1182.1244010569965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -1441,11 +1569,17 @@
       <c r="K23" s="8">
         <v>672.02152210677514</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="8">
         <v>767.26974282372805</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="17">
+        <v>920.06499927991933</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1063.1449577722633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="15" t="s">
         <v>0</v>
       </c>
@@ -1479,11 +1613,17 @@
       <c r="K24" s="9">
         <v>237.68889913730803</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="9">
         <v>257.89660464100081</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="18">
+        <v>364.73218738412493</v>
+      </c>
+      <c r="N24" s="27">
+        <v>438.04070364069065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="15" t="s">
         <v>1</v>
       </c>
@@ -1517,11 +1657,17 @@
       <c r="K25" s="9">
         <v>49.750222460481474</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="9">
         <v>69.121189089886258</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="18">
+        <v>97.880815685444276</v>
+      </c>
+      <c r="N25" s="27">
+        <v>100.9953961819062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
@@ -1555,11 +1701,17 @@
       <c r="K26" s="9">
         <v>64.257957932446061</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="9">
         <v>98.957178030780668</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="18">
+        <v>66.796668680031004</v>
+      </c>
+      <c r="N26" s="27">
+        <v>77.253926195917586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
@@ -1593,11 +1745,17 @@
       <c r="K27" s="9">
         <v>1.921384969224017</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="9">
         <v>5.1281058596246529</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="18">
+        <v>4.2693691619675986</v>
+      </c>
+      <c r="N27" s="27">
+        <v>6.3920325038846464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -1631,11 +1789,17 @@
       <c r="K28" s="9">
         <v>247.58496254284984</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="9">
         <v>268.68612512694813</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="18">
+        <v>301.24932758651613</v>
+      </c>
+      <c r="N28" s="27">
+        <v>362.08853787836614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
@@ -1669,11 +1833,17 @@
       <c r="K29" s="9">
         <v>20.323438739389093</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="9">
         <v>20.144448388283848</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="18">
+        <v>26.123394803515652</v>
+      </c>
+      <c r="N29" s="27">
+        <v>32.74135889797725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1707,11 +1877,17 @@
       <c r="K30" s="9">
         <v>50.494656325076718</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="9">
         <v>47.336091687203734</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="18">
+        <v>59.013235978319251</v>
+      </c>
+      <c r="N30" s="27">
+        <v>45.633002473520882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="14" t="s">
         <v>10</v>
       </c>
@@ -1745,11 +1921,17 @@
       <c r="K31" s="8">
         <v>137.622614181329</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="8">
         <v>134.52500339398782</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="17">
+        <v>143.15579519900245</v>
+      </c>
+      <c r="N31" s="26">
+        <v>118.97944328473274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="14" t="s">
         <v>11</v>
       </c>
@@ -1783,11 +1965,17 @@
       <c r="K32" s="8">
         <v>29.91765684742597</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="8">
         <v>34.339402276796598</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="17">
+        <v>42.760028350257379</v>
+      </c>
+      <c r="N32" s="26">
+        <v>46.979053049450918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="15" t="s">
         <v>6</v>
       </c>
@@ -1821,11 +2009,17 @@
       <c r="K33" s="9">
         <v>1.7936352895029066</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="9">
         <v>3.536595367778995</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="18">
+        <v>1.2115364230540511</v>
+      </c>
+      <c r="N33" s="27">
+        <v>2.0534326832559104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -1859,11 +2053,17 @@
       <c r="K34" s="9">
         <v>28.124021557923061</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="9">
         <v>30.802806909017601</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="18">
+        <v>41.548491927203322</v>
+      </c>
+      <c r="N34" s="27">
+        <v>44.925620366194998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="14" t="s">
         <v>12</v>
       </c>
@@ -1897,11 +2097,17 @@
       <c r="K35" s="8">
         <v>701.93917895420111</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="8">
         <v>801.60914510052453</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="17">
+        <v>962.82502763017612</v>
+      </c>
+      <c r="N35" s="26">
+        <v>1110.1240108217141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="16" t="s">
         <v>13</v>
       </c>
@@ -1935,11 +2141,17 @@
       <c r="K36" s="10">
         <v>839.56179313553014</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="10">
         <v>936.13414849451249</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="19">
+        <v>1105.9808228291788</v>
+      </c>
+      <c r="N36" s="28">
+        <v>1229.1034541064469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1950,7 +2162,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1961,23 +2173,25 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:14" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="12">
         <v>2011</v>
@@ -2012,8 +2226,14 @@
       <c r="L40" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>8</v>
       </c>
@@ -2047,11 +2267,17 @@
       <c r="K41" s="8">
         <v>250.22409904503834</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="8">
         <v>289.29633685479575</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="17">
+        <v>333.44748643928705</v>
+      </c>
+      <c r="N41" s="26">
+        <v>384.04958922274977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
@@ -2085,11 +2311,17 @@
       <c r="K42" s="8">
         <v>207.69122182366604</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="8">
         <v>246.14062890629998</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="17">
+        <v>288.5509415953544</v>
+      </c>
+      <c r="N42" s="26">
+        <v>345.39544564987727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
@@ -2123,11 +2355,17 @@
       <c r="K43" s="9">
         <v>73.458804892123737</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="9">
         <v>82.733397286746552</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="18">
+        <v>114.38737065554133</v>
+      </c>
+      <c r="N43" s="27">
+        <v>142.31103946896732</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>1</v>
       </c>
@@ -2161,11 +2399,17 @@
       <c r="K44" s="9">
         <v>15.375526153424094</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="9">
         <v>22.174122089999528</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="18">
+        <v>30.69739806672451</v>
+      </c>
+      <c r="N44" s="27">
+        <v>32.811470926721711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
@@ -2199,11 +2443,17 @@
       <c r="K45" s="9">
         <v>19.859205926983662</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="9">
         <v>31.745526606651158</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="18">
+        <v>20.948782594860887</v>
+      </c>
+      <c r="N45" s="27">
+        <v>25.098321796638285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
@@ -2237,11 +2487,17 @@
       <c r="K46" s="9">
         <v>0.59381251749309094</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="9">
         <v>1.6450996708677448</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="18">
+        <v>1.3389602828801002</v>
+      </c>
+      <c r="N46" s="27">
+        <v>2.076649001763565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2275,11 +2531,17 @@
       <c r="K47" s="9">
         <v>76.517227029405973</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="9">
         <v>86.194682425183984</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="18">
+        <v>94.477865366129905</v>
+      </c>
+      <c r="N47" s="27">
+        <v>117.63563471840374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>4</v>
       </c>
@@ -2313,11 +2575,17 @@
       <c r="K48" s="9">
         <v>6.2810485744703399</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="9">
         <v>6.4623520497690459</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="18">
+        <v>8.1928235223827937</v>
+      </c>
+      <c r="N48" s="27">
+        <v>10.637040758248014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>5</v>
       </c>
@@ -2351,11 +2619,17 @@
       <c r="K49" s="9">
         <v>15.605596729765148</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L49" s="9">
         <v>15.185448777082003</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="18">
+        <v>18.507741106834771</v>
+      </c>
+      <c r="N49" s="27">
+        <v>14.825288979134639</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>10</v>
       </c>
@@ -2389,11 +2663,17 @@
       <c r="K50" s="8">
         <v>42.53287722137231</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L50" s="8">
         <v>43.155707948495809</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="17">
+        <v>44.896544843932787</v>
+      </c>
+      <c r="N50" s="26">
+        <v>38.654143572872513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>11</v>
       </c>
@@ -2427,11 +2707,17 @@
       <c r="K51" s="8">
         <v>9.2461840883658546</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="8">
         <v>11.016102422559589</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="17">
+        <v>13.410407365531123</v>
+      </c>
+      <c r="N51" s="26">
+        <v>15.262595044635646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>6</v>
       </c>
@@ -2465,11 +2751,17 @@
       <c r="K52" s="9">
         <v>0.55433091430621606</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="9">
         <v>1.1345420774818915</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="18">
+        <v>0.37996225910443021</v>
+      </c>
+      <c r="N52" s="27">
+        <v>0.66712097119038993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>7</v>
       </c>
@@ -2503,11 +2795,17 @@
       <c r="K53" s="9">
         <v>8.6918531740596396</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="9">
         <v>9.8815603450776965</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="18">
+        <v>13.030445106426694</v>
+      </c>
+      <c r="N53" s="27">
+        <v>14.595474073445258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>12</v>
       </c>
@@ -2541,11 +2839,17 @@
       <c r="K54" s="8">
         <v>216.93740591203186</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="8">
         <v>257.15673132885956</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="17">
+        <v>301.96134896088552</v>
+      </c>
+      <c r="N54" s="26">
+        <v>360.65804069451292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>13</v>
       </c>
@@ -2579,66 +2883,78 @@
       <c r="K55" s="10">
         <v>259.47028313340417</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="10">
         <v>300.3124392773554</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="18" t="s">
+      <c r="M55" s="19">
+        <v>346.85789380481822</v>
+      </c>
+      <c r="N55" s="28">
+        <v>399.31218426738542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
